--- a/pred_ohlcv/54_21/2019-10-30 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XRP ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>768792.6696313599</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>8337074.923356504</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>8687845.657274574</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>7689849.059192644</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>7564275.531918424</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>7534145.522818424</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>7520754.532418424</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>7533861.227518424</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>8278558.194257332</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>8285397.476757332</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>8618630.351557331</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XRP ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>768792.6696313599</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>784141.8110313598</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>7673919.61464336</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>8131241.43594336</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>8337074.923356504</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>8687845.657274574</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>7689849.059192644</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>7564275.531918424</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>7534145.522818424</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>7520754.532418424</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>7533861.227518424</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>8278558.194257332</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>8285397.476757332</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>8618630.351557331</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
